--- a/Doc/15days.xlsx
+++ b/Doc/15days.xlsx
@@ -21,7 +21,7 @@
     <author>prpattan</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,30 +51,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>CJ(45)</t>
-  </si>
-  <si>
-    <t>sp(1.15)</t>
-  </si>
-  <si>
-    <t>webser(20)</t>
-  </si>
-  <si>
-    <t>db(20)</t>
-  </si>
-  <si>
-    <t>hb(30)</t>
-  </si>
-  <si>
-    <t>proj(1)</t>
-  </si>
-  <si>
-    <t>designpatn(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Tech(30) </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>CJ:.45</t>
+  </si>
+  <si>
+    <t>SP:1.15</t>
+  </si>
+  <si>
+    <t>webser:.20</t>
+  </si>
+  <si>
+    <t>HB:.30</t>
+  </si>
+  <si>
+    <t>proj:1</t>
+  </si>
+  <si>
+    <t>designPt:.20</t>
+  </si>
+  <si>
+    <t>NewTech:30</t>
+  </si>
+  <si>
+    <t>Sum/day</t>
+  </si>
+  <si>
+    <t>Sum.Individual</t>
+  </si>
+  <si>
+    <t>DelayTime</t>
+  </si>
+  <si>
+    <t>Total Needed</t>
+  </si>
+  <si>
+    <t>ProjCode:.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project flow </t>
+  </si>
+  <si>
+    <t>http://www.beingjavaguys.com/2013/03/java-collection-framework.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -82,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +126,92 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,18 +223,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,143 +564,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:20">
+      <c r="C1">
+        <v>45</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>75</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="M1">
+        <v>60</v>
+      </c>
+      <c r="O1">
+        <v>20</v>
+      </c>
+      <c r="Q1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q2" s="8"/>
+      <c r="S2" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
         <v>42572</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <f>SUM(C3,G3,I3,K3,O3,Q3,M3)/60</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="T3" s="14">
+        <f>SUM(280)/60-S3</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A4" s="1">
         <v>42573</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="S4">
+        <f>SUM(C4,G4,I4,K4,O4,Q4,M4)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T17" si="0">SUM(280)/60-S4</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
         <v>42574</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="S5">
+        <f>SUM(C5,G5,I5,K5,O5,Q5,M5)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>SUM(280)/60-S5</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
         <v>42575</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="S6">
+        <f>SUM(C6,G6,I6,K6,O6,Q6,M6)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
         <v>42576</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7">
+        <f>SUM(C7,G7,I7,K7,O7,Q7,M7)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
         <v>42577</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="S8">
+        <f>SUM(C8,G8,I8,K8,O8,Q8,M8)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
         <v>42578</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="S9">
+        <f>SUM(C9,G9,I9,K9,O9,Q9,M9)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
         <v>42579</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="S10">
+        <f>SUM(C10,G10,I10,K10,O10,Q10,M10)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
         <v>42580</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="S11">
+        <f>SUM(C11,G11,I11,K11,O11,Q11,M11)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
         <v>42581</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="S12">
+        <f>SUM(C12,G12,I12,K12,O12,Q12,M12)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
         <v>42582</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="S13">
+        <f>SUM(C13,G13,I13,K13,O13,Q13,M13)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
         <v>42583</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="S14">
+        <f>SUM(C14,G14,I14,K14,O14,Q14,M14)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
         <v>42584</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="S15">
+        <f>SUM(C15,G15,I15,K15,O15,Q15,M15)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
         <v>42585</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="S16">
+        <f>SUM(C16,G16,I16,K16,O16,Q16,M16)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
         <v>42586</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>42587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>42588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>42589</v>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="S17">
+        <f>SUM(C17,G17,I17,K17,O17,Q17,M17)/60</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12">
+        <f>((C1*15)-SUM(C3:C18))/60</f>
+        <v>11.25</v>
+      </c>
+      <c r="E19" s="12">
+        <f>((E1*15)-SUM(E3:E18))/60-4</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <f>((G1*15)-SUM(G3:G18))/60</f>
+        <v>18.75</v>
+      </c>
+      <c r="I19" s="9">
+        <f>((I1*15)-SUM(I3:I18))/60</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K19" s="9">
+        <f>((K1*15)-SUM(K3:K18))/60</f>
+        <v>7</v>
+      </c>
+      <c r="M19" s="12">
+        <f>((M1*15)-SUM(M3:M18))/60</f>
+        <v>15</v>
+      </c>
+      <c r="O19" s="9">
+        <f>((O1*15)-SUM(O3:O18))/60</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="Q19" s="12">
+        <f>((Q1*15)-SUM(Q3:Q18))/60</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13">
+        <f>(C1*15)/60</f>
+        <v>11.25</v>
+      </c>
+      <c r="E20" s="13">
+        <f>(E1*15)/60-4</f>
+        <v>11</v>
+      </c>
+      <c r="G20" s="13">
+        <f>(G1*15)/60</f>
+        <v>18.75</v>
+      </c>
+      <c r="I20" s="13">
+        <f>(I1*15)/60</f>
+        <v>5</v>
+      </c>
+      <c r="K20" s="13">
+        <f>(K1*15)/60</f>
+        <v>7.5</v>
+      </c>
+      <c r="M20" s="13">
+        <f>(M1*15)/60</f>
+        <v>15</v>
+      </c>
+      <c r="O20" s="13">
+        <f>(O1*15)/60</f>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="13">
+        <f>(Q1*15)/60</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
